--- a/Các-yêu-cầu-của-khách-hàng-đã-hoàn-thành.xlsx
+++ b/Các-yêu-cầu-của-khách-hàng-đã-hoàn-thành.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MickeyMouse\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" tabRatio="705" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="705" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Record of change" sheetId="1" r:id="rId1"/>
     <sheet name="High level requirement" sheetId="33" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'High level requirement'!$A$1:$AJ$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'High level requirement'!$A$1:$AJ$81</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -124,6 +124,9 @@
 </t>
   </si>
   <si>
+    <t>ThachLN</t>
+  </si>
+  <si>
     <t>Input</t>
   </si>
   <si>
@@ -323,14 +326,11 @@
   <si>
     <t>Đã hoàn thành (xem file MyBigNumber.jar)</t>
   </si>
-  <si>
-    <t>BachNLT</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#."/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
@@ -1305,7 +1305,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="18" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1622,6 +1622,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="21" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -1762,53 +1765,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>201370</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>2008411</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="537883" y="10780059"/>
-          <a:ext cx="7171428" cy="1952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>2654916</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1819,7 +1784,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1840,13 +1805,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>33619</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>78442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>59272</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>2935942</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1857,7 +1822,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1878,13 +1843,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>22413</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>67236</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>3193676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1895,7 +1860,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1914,20 +1879,58 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>56121</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>127314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4415117" y="26748441"/>
+          <a:ext cx="3742857" cy="3466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>164817</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>116108</xdr:rowOff>
+      <xdr:colOff>155293</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>128996</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1940,8 +1943,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="30793765"/>
-          <a:ext cx="3761905" cy="3466667"/>
+          <a:off x="0" y="26759647"/>
+          <a:ext cx="3752381" cy="3457143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1952,20 +1955,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>56121</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>127314</xdr:rowOff>
+      <xdr:colOff>66283</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1421298</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1978,8 +1981,122 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4415117" y="26748441"/>
-          <a:ext cx="3742857" cy="3466667"/>
+          <a:off x="549088" y="10499912"/>
+          <a:ext cx="7619048" cy="1342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>136245</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>185026</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="31309236"/>
+          <a:ext cx="3733333" cy="3457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>33616</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>68916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>66282</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1335583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="549087" y="11924740"/>
+          <a:ext cx="7619048" cy="1266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>22413</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>33711</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>186708</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4392707" y="31163560"/>
+          <a:ext cx="3742857" cy="3447619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2345,20 +2462,20 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="41.5546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="9"/>
-    <col min="4" max="4" width="39.109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="9" customWidth="1"/>
-    <col min="6" max="253" width="9.109375" style="9"/>
-    <col min="254" max="254" width="21.33203125" style="9" customWidth="1"/>
-    <col min="255" max="255" width="41.5546875" style="9" customWidth="1"/>
-    <col min="256" max="16384" width="9.109375" style="9"/>
+    <col min="1" max="1" width="21.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="9"/>
+    <col min="4" max="4" width="39.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="9" customWidth="1"/>
+    <col min="6" max="253" width="9.140625" style="9"/>
+    <col min="254" max="254" width="21.28515625" style="9" customWidth="1"/>
+    <col min="255" max="255" width="41.5703125" style="9" customWidth="1"/>
+    <col min="256" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15.6">
+    <row r="2" spans="1:5" ht="16.5">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
@@ -2392,24 +2509,24 @@
         <v>6</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27.6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29.25">
       <c r="A6" s="14">
         <v>43449</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2417,16 +2534,16 @@
         <v>43456</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2564,41 +2681,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN77"/>
+  <dimension ref="A1:AN78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+      <selection activeCell="AG4" sqref="AG4:AJ4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="3.88671875" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" customWidth="1"/>
-    <col min="23" max="23" width="1.88671875" customWidth="1"/>
-    <col min="24" max="24" width="2.5546875" customWidth="1"/>
-    <col min="25" max="25" width="2.109375" customWidth="1"/>
-    <col min="26" max="26" width="1.44140625" customWidth="1"/>
-    <col min="27" max="27" width="3.33203125" customWidth="1"/>
-    <col min="28" max="28" width="3.88671875" customWidth="1"/>
-    <col min="29" max="29" width="2.5546875" customWidth="1"/>
-    <col min="30" max="31" width="3.88671875" customWidth="1"/>
-    <col min="32" max="32" width="2.109375" customWidth="1"/>
-    <col min="33" max="33" width="3.88671875" customWidth="1"/>
-    <col min="34" max="35" width="2.5546875" customWidth="1"/>
-    <col min="36" max="36" width="2.109375" customWidth="1"/>
-    <col min="37" max="37" width="23.88671875" style="52" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="23" max="23" width="1.85546875" customWidth="1"/>
+    <col min="24" max="24" width="2.5703125" customWidth="1"/>
+    <col min="25" max="25" width="2.140625" customWidth="1"/>
+    <col min="26" max="26" width="1.42578125" customWidth="1"/>
+    <col min="27" max="27" width="3.28515625" customWidth="1"/>
+    <col min="28" max="28" width="3.85546875" customWidth="1"/>
+    <col min="29" max="29" width="2.5703125" customWidth="1"/>
+    <col min="30" max="31" width="3.85546875" customWidth="1"/>
+    <col min="32" max="32" width="2.140625" customWidth="1"/>
+    <col min="33" max="33" width="3.85546875" customWidth="1"/>
+    <col min="34" max="35" width="2.5703125" customWidth="1"/>
+    <col min="36" max="36" width="2.140625" customWidth="1"/>
+    <col min="37" max="37" width="23.85546875" style="52" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1">
       <c r="A1" s="89" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="90"/>
       <c r="C1" s="90"/>
       <c r="D1" s="90"/>
       <c r="E1" s="93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="94"/>
       <c r="G1" s="94"/>
@@ -2659,7 +2776,7 @@
       <c r="U2" s="97"/>
       <c r="V2" s="98"/>
       <c r="W2" s="102" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X2" s="103"/>
       <c r="Y2" s="103"/>
@@ -2684,7 +2801,7 @@
       <c r="C3" s="106"/>
       <c r="D3" s="106"/>
       <c r="E3" s="109" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="78"/>
       <c r="G3" s="78"/>
@@ -2696,7 +2813,7 @@
       <c r="K3" s="106"/>
       <c r="L3" s="113"/>
       <c r="M3" s="77" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N3" s="78"/>
       <c r="O3" s="78"/>
@@ -2724,7 +2841,7 @@
       <c r="AE3" s="5"/>
       <c r="AF3" s="6"/>
       <c r="AG3" s="85" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="AH3" s="86"/>
       <c r="AI3" s="86"/>
@@ -2771,19 +2888,19 @@
       <c r="AE4" s="7"/>
       <c r="AF4" s="8"/>
       <c r="AG4" s="73" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="AH4" s="74"/>
       <c r="AI4" s="74"/>
       <c r="AJ4" s="75"/>
       <c r="AK4" s="88"/>
     </row>
-    <row r="5" spans="1:37" ht="15.6">
+    <row r="5" spans="1:37" ht="15.75">
       <c r="A5" s="36">
         <v>1</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
@@ -2821,7 +2938,7 @@
       <c r="AJ5" s="37"/>
       <c r="AK5" s="70"/>
     </row>
-    <row r="6" spans="1:37" ht="15.6">
+    <row r="6" spans="1:37" ht="15.75">
       <c r="A6" s="38"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -2860,10 +2977,10 @@
       <c r="AJ6" s="38"/>
       <c r="AK6" s="70"/>
     </row>
-    <row r="7" spans="1:37" ht="15.6">
+    <row r="7" spans="1:37" ht="15.75">
       <c r="A7" s="38"/>
       <c r="B7" s="38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
@@ -2901,10 +3018,10 @@
       <c r="AJ7" s="39"/>
       <c r="AK7" s="70"/>
     </row>
-    <row r="8" spans="1:37" ht="15.6">
+    <row r="8" spans="1:37" ht="15.75">
       <c r="A8" s="38"/>
       <c r="B8" s="38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
@@ -2942,7 +3059,7 @@
       <c r="AJ8" s="39"/>
       <c r="AK8" s="70"/>
     </row>
-    <row r="9" spans="1:37" ht="15.6">
+    <row r="9" spans="1:37" ht="15.75">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="39"/>
@@ -2981,7 +3098,7 @@
       <c r="AJ9" s="39"/>
       <c r="AK9" s="70"/>
     </row>
-    <row r="10" spans="1:37" ht="15.6">
+    <row r="10" spans="1:37" ht="15.75">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
       <c r="C10" s="39"/>
@@ -2993,7 +3110,7 @@
       <c r="I10" s="39"/>
       <c r="J10" s="39"/>
       <c r="K10" s="67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L10" s="67"/>
       <c r="M10" s="67"/>
@@ -3022,7 +3139,7 @@
       <c r="AJ10" s="39"/>
       <c r="AK10" s="70"/>
     </row>
-    <row r="11" spans="1:37" ht="15.6">
+    <row r="11" spans="1:37" ht="15.75">
       <c r="A11" s="38"/>
       <c r="B11" s="38"/>
       <c r="C11" s="39"/>
@@ -3061,7 +3178,7 @@
       <c r="AJ11" s="39"/>
       <c r="AK11" s="70"/>
     </row>
-    <row r="12" spans="1:37" ht="15.6">
+    <row r="12" spans="1:37" ht="15.75">
       <c r="A12" s="38"/>
       <c r="B12" s="38"/>
       <c r="C12" s="39"/>
@@ -3100,12 +3217,12 @@
       <c r="AJ12" s="39"/>
       <c r="AK12" s="70"/>
     </row>
-    <row r="13" spans="1:37" ht="15.6">
+    <row r="13" spans="1:37" ht="15.75">
       <c r="A13" s="36">
         <v>2</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
@@ -3143,7 +3260,7 @@
       <c r="AJ13" s="37"/>
       <c r="AK13" s="70"/>
     </row>
-    <row r="14" spans="1:37" ht="15.6">
+    <row r="14" spans="1:37" ht="15.75">
       <c r="A14" s="38"/>
       <c r="B14" s="38"/>
       <c r="C14" s="39"/>
@@ -3182,13 +3299,13 @@
       <c r="AJ14" s="39"/>
       <c r="AK14" s="70"/>
     </row>
-    <row r="15" spans="1:37" ht="15.6">
+    <row r="15" spans="1:37" ht="15.75">
       <c r="A15" s="38"/>
       <c r="B15" s="40" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
@@ -3225,7 +3342,7 @@
       <c r="AJ15" s="39"/>
       <c r="AK15" s="70"/>
     </row>
-    <row r="16" spans="1:37" ht="15.6">
+    <row r="16" spans="1:37" ht="15.75">
       <c r="A16" s="38"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -3264,13 +3381,13 @@
       <c r="AJ16" s="39"/>
       <c r="AK16" s="70"/>
     </row>
-    <row r="17" spans="1:37" ht="15.6">
+    <row r="17" spans="1:37" ht="15.75">
       <c r="A17" s="38"/>
       <c r="B17" s="40" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="39"/>
       <c r="E17" s="39"/>
@@ -3307,7 +3424,7 @@
       <c r="AJ17" s="39"/>
       <c r="AK17" s="70"/>
     </row>
-    <row r="18" spans="1:37" ht="15.6">
+    <row r="18" spans="1:37" ht="15.75">
       <c r="A18" s="38"/>
       <c r="B18" s="40"/>
       <c r="C18" s="41"/>
@@ -3346,7 +3463,7 @@
       <c r="AJ18" s="39"/>
       <c r="AK18" s="70"/>
     </row>
-    <row r="19" spans="1:37" ht="15.6">
+    <row r="19" spans="1:37" ht="15.75">
       <c r="A19" s="38"/>
       <c r="B19" s="40"/>
       <c r="C19" s="41"/>
@@ -3358,7 +3475,7 @@
       <c r="I19" s="39"/>
       <c r="J19" s="39"/>
       <c r="K19" s="67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L19" s="67"/>
       <c r="M19" s="67"/>
@@ -3387,7 +3504,7 @@
       <c r="AJ19" s="39"/>
       <c r="AK19" s="70"/>
     </row>
-    <row r="20" spans="1:37" ht="15.6">
+    <row r="20" spans="1:37" ht="15.75">
       <c r="A20" s="38"/>
       <c r="B20" s="40"/>
       <c r="C20" s="41"/>
@@ -3426,7 +3543,7 @@
       <c r="AJ20" s="39"/>
       <c r="AK20" s="70"/>
     </row>
-    <row r="21" spans="1:37" ht="15.6">
+    <row r="21" spans="1:37" ht="15.75">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
       <c r="C21" s="39"/>
@@ -3465,12 +3582,12 @@
       <c r="AJ21" s="39"/>
       <c r="AK21" s="70"/>
     </row>
-    <row r="22" spans="1:37" ht="15.6">
+    <row r="22" spans="1:37" ht="15.75">
       <c r="A22" s="36">
         <v>3</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
@@ -3516,7 +3633,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" s="68"/>
       <c r="E24" s="68"/>
@@ -3558,7 +3675,7 @@
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AK25" s="70"/>
     </row>
@@ -3566,10 +3683,10 @@
       <c r="B26" s="35"/>
       <c r="AK26" s="70"/>
     </row>
-    <row r="27" spans="1:37" ht="15.6">
+    <row r="27" spans="1:37" ht="15.75">
       <c r="B27" s="35"/>
       <c r="K27" s="67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L27" s="67"/>
       <c r="M27" s="67"/>
@@ -3624,12 +3741,12 @@
       <c r="AJ29" s="53"/>
       <c r="AK29" s="70"/>
     </row>
-    <row r="30" spans="1:37" ht="15.6">
+    <row r="30" spans="1:37" ht="15.75">
       <c r="A30" s="36">
         <v>4</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
@@ -3668,16 +3785,16 @@
     </row>
     <row r="32" spans="1:37">
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AK32" s="54"/>
     </row>
-    <row r="33" spans="2:37" ht="15.6">
+    <row r="33" spans="2:37" ht="15.75">
       <c r="C33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X33" s="67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y33" s="67"/>
       <c r="Z33" s="67"/>
@@ -3691,12 +3808,12 @@
       <c r="AH33" s="67"/>
       <c r="AK33" s="54"/>
     </row>
-    <row r="34" spans="2:37" ht="15.6">
+    <row r="34" spans="2:37" ht="15.75">
       <c r="C34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X34" s="67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y34" s="67"/>
       <c r="Z34" s="67"/>
@@ -3710,12 +3827,12 @@
       <c r="AH34" s="67"/>
       <c r="AK34" s="54"/>
     </row>
-    <row r="35" spans="2:37" ht="15.6">
+    <row r="35" spans="2:37" ht="15.75">
       <c r="C35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X35" s="67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y35" s="67"/>
       <c r="Z35" s="67"/>
@@ -3729,12 +3846,12 @@
       <c r="AH35" s="67"/>
       <c r="AK35" s="54"/>
     </row>
-    <row r="36" spans="2:37" ht="15.6">
+    <row r="36" spans="2:37" ht="15.75">
       <c r="C36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X36" s="67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y36" s="67"/>
       <c r="Z36" s="67"/>
@@ -3753,11 +3870,11 @@
     </row>
     <row r="38" spans="2:37" ht="39" customHeight="1">
       <c r="C38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA38" s="61"/>
       <c r="AB38" s="69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC38" s="69"/>
       <c r="AD38" s="69"/>
@@ -3769,51 +3886,26 @@
       <c r="AJ38" s="59"/>
       <c r="AK38" s="60"/>
     </row>
-    <row r="39" spans="2:37" ht="174" customHeight="1">
-      <c r="AK39" s="54"/>
-    </row>
-    <row r="40" spans="2:37">
-      <c r="B40" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="68"/>
-      <c r="Q40" s="68"/>
-      <c r="R40" s="68"/>
-      <c r="S40" s="68"/>
-      <c r="T40" s="68"/>
-      <c r="U40" s="68"/>
-      <c r="V40" s="68"/>
-      <c r="W40" s="68"/>
-      <c r="X40" s="68"/>
-      <c r="Y40" s="68"/>
-      <c r="Z40" s="68"/>
-      <c r="AA40" s="68"/>
-      <c r="AB40" s="68"/>
-      <c r="AC40" s="68"/>
-      <c r="AD40" s="68"/>
-      <c r="AE40" s="68"/>
-      <c r="AF40" s="68"/>
-      <c r="AG40" s="68"/>
-      <c r="AH40" s="68"/>
-      <c r="AI40" s="68"/>
-      <c r="AJ40" s="68"/>
-      <c r="AK40" s="55"/>
+    <row r="39" spans="2:37" ht="112.5" customHeight="1">
+      <c r="AA39" s="61"/>
+      <c r="AB39" s="115"/>
+      <c r="AC39" s="115"/>
+      <c r="AD39" s="115"/>
+      <c r="AE39" s="115"/>
+      <c r="AF39" s="115"/>
+      <c r="AG39" s="115"/>
+      <c r="AH39" s="115"/>
+      <c r="AI39" s="59"/>
+      <c r="AJ39" s="59"/>
+      <c r="AK39" s="60"/>
+    </row>
+    <row r="40" spans="2:37" ht="117" customHeight="1">
+      <c r="AK40" s="54"/>
     </row>
     <row r="41" spans="2:37">
-      <c r="B41" s="68"/>
+      <c r="B41" s="68" t="s">
+        <v>44</v>
+      </c>
       <c r="C41" s="68"/>
       <c r="D41" s="68"/>
       <c r="E41" s="68"/>
@@ -3851,67 +3943,90 @@
       <c r="AK41" s="55"/>
     </row>
     <row r="42" spans="2:37">
-      <c r="AK42" s="54"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="68"/>
+      <c r="Q42" s="68"/>
+      <c r="R42" s="68"/>
+      <c r="S42" s="68"/>
+      <c r="T42" s="68"/>
+      <c r="U42" s="68"/>
+      <c r="V42" s="68"/>
+      <c r="W42" s="68"/>
+      <c r="X42" s="68"/>
+      <c r="Y42" s="68"/>
+      <c r="Z42" s="68"/>
+      <c r="AA42" s="68"/>
+      <c r="AB42" s="68"/>
+      <c r="AC42" s="68"/>
+      <c r="AD42" s="68"/>
+      <c r="AE42" s="68"/>
+      <c r="AF42" s="68"/>
+      <c r="AG42" s="68"/>
+      <c r="AH42" s="68"/>
+      <c r="AI42" s="68"/>
+      <c r="AJ42" s="68"/>
+      <c r="AK42" s="55"/>
     </row>
     <row r="43" spans="2:37">
-      <c r="B43" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC43" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD43" s="65"/>
-      <c r="AE43" s="65"/>
-      <c r="AF43" s="65"/>
-      <c r="AG43" s="65"/>
-      <c r="AH43" s="65"/>
       <c r="AK43" s="54"/>
     </row>
-    <row r="44" spans="2:37" ht="241.5" customHeight="1">
-      <c r="AC44" s="62"/>
-      <c r="AD44" s="62"/>
-      <c r="AE44" s="62"/>
-      <c r="AF44" s="62"/>
-      <c r="AG44" s="62"/>
-      <c r="AH44" s="62"/>
+    <row r="44" spans="2:37">
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC44" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD44" s="65"/>
+      <c r="AE44" s="65"/>
+      <c r="AF44" s="65"/>
+      <c r="AG44" s="65"/>
+      <c r="AH44" s="65"/>
       <c r="AK44" s="54"/>
     </row>
-    <row r="45" spans="2:37">
-      <c r="B45" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC45" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD45" s="65"/>
-      <c r="AE45" s="65"/>
-      <c r="AF45" s="65"/>
-      <c r="AG45" s="65"/>
-      <c r="AH45" s="65"/>
+    <row r="45" spans="2:37" ht="241.5" customHeight="1">
+      <c r="AC45" s="62"/>
+      <c r="AD45" s="62"/>
+      <c r="AE45" s="62"/>
+      <c r="AF45" s="62"/>
+      <c r="AG45" s="62"/>
+      <c r="AH45" s="62"/>
       <c r="AK45" s="54"/>
     </row>
-    <row r="46" spans="2:37" ht="16.5" customHeight="1">
-      <c r="B46" s="35" t="s">
+    <row r="46" spans="2:37">
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC46" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD46" s="65"/>
+      <c r="AE46" s="65"/>
+      <c r="AF46" s="65"/>
+      <c r="AG46" s="65"/>
+      <c r="AH46" s="65"/>
+      <c r="AK46" s="54"/>
+    </row>
+    <row r="47" spans="2:37" ht="16.5" customHeight="1">
+      <c r="B47" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" t="s">
         <v>57</v>
       </c>
-      <c r="C46" t="s">
-        <v>56</v>
-      </c>
-      <c r="V46" s="59"/>
-      <c r="W46" s="59"/>
-      <c r="X46" s="59"/>
-      <c r="Y46" s="59"/>
-      <c r="Z46" s="59"/>
-      <c r="AA46" s="59"/>
-      <c r="AB46" s="59"/>
-      <c r="AC46" s="59"/>
-      <c r="AD46" s="59"/>
-      <c r="AE46" s="59"/>
-      <c r="AF46" s="59"/>
-      <c r="AK46" s="56"/>
-    </row>
-    <row r="47" spans="2:37" ht="259.5" customHeight="1">
-      <c r="B47" s="35"/>
       <c r="V47" s="59"/>
       <c r="W47" s="59"/>
       <c r="X47" s="59"/>
@@ -3925,50 +4040,55 @@
       <c r="AF47" s="59"/>
       <c r="AK47" s="56"/>
     </row>
-    <row r="48" spans="2:37">
-      <c r="B48" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" t="s">
+    <row r="48" spans="2:37" ht="259.5" customHeight="1">
+      <c r="B48" s="35"/>
+      <c r="V48" s="59"/>
+      <c r="W48" s="59"/>
+      <c r="X48" s="59"/>
+      <c r="Y48" s="59"/>
+      <c r="Z48" s="59"/>
+      <c r="AA48" s="59"/>
+      <c r="AB48" s="59"/>
+      <c r="AC48" s="59"/>
+      <c r="AD48" s="59"/>
+      <c r="AE48" s="59"/>
+      <c r="AF48" s="59"/>
+      <c r="AK48" s="56"/>
+    </row>
+    <row r="49" spans="1:37">
+      <c r="B49" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37">
+      <c r="C50" s="50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37">
+      <c r="C51" s="47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37">
+      <c r="C52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
-      <c r="C49" s="50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:37">
-      <c r="C50" s="47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:37">
-      <c r="C51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:37">
-      <c r="B53" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="47"/>
-    </row>
     <row r="54" spans="1:37">
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
       <c r="C54" s="47"/>
     </row>
     <row r="55" spans="1:37">
-      <c r="B55" t="s">
-        <v>28</v>
-      </c>
-      <c r="F55" s="42"/>
-      <c r="G55" s="43"/>
+      <c r="C55" s="47"/>
     </row>
     <row r="56" spans="1:37">
-      <c r="C56" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="B56" t="s">
         <v>29</v>
       </c>
       <c r="F56" s="42"/>
@@ -3976,27 +4096,28 @@
     </row>
     <row r="57" spans="1:37">
       <c r="C57" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="F57" s="42"/>
       <c r="G57" s="43"/>
-      <c r="AK57" s="55"/>
     </row>
     <row r="58" spans="1:37">
       <c r="C58" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>30</v>
-      </c>
-      <c r="G58" s="44"/>
+        <v>64</v>
+      </c>
+      <c r="F58" s="42"/>
+      <c r="G58" s="43"/>
+      <c r="AK58" s="55"/>
     </row>
     <row r="59" spans="1:37">
       <c r="C59" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D59" t="s">
         <v>31</v>
@@ -4005,128 +4126,99 @@
     </row>
     <row r="60" spans="1:37">
       <c r="C60" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="44"/>
+    </row>
+    <row r="61" spans="1:37">
+      <c r="C61" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D60" t="s">
-        <v>38</v>
-      </c>
-      <c r="G60" s="44"/>
-    </row>
-    <row r="62" spans="1:37" ht="15.6">
-      <c r="A62" s="36">
+      <c r="D61" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61" s="44"/>
+    </row>
+    <row r="63" spans="1:37" ht="15.75">
+      <c r="A63" s="36">
         <v>5</v>
       </c>
-      <c r="B62" s="37" t="s">
+      <c r="B63" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="37"/>
+      <c r="Q63" s="37"/>
+      <c r="R63" s="37"/>
+      <c r="S63" s="37"/>
+      <c r="T63" s="37"/>
+      <c r="U63" s="37"/>
+      <c r="V63" s="37"/>
+      <c r="W63" s="37"/>
+      <c r="X63" s="37"/>
+      <c r="Y63" s="37"/>
+      <c r="Z63" s="37"/>
+      <c r="AA63" s="37"/>
+      <c r="AB63" s="37"/>
+      <c r="AC63" s="37"/>
+      <c r="AD63" s="37"/>
+      <c r="AE63" s="37"/>
+      <c r="AF63" s="37"/>
+      <c r="AG63" s="37"/>
+      <c r="AH63" s="37"/>
+      <c r="AI63" s="37"/>
+      <c r="AJ63" s="37"/>
+    </row>
+    <row r="65" spans="2:40" ht="15.75" thickBot="1">
+      <c r="B65" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="37"/>
-      <c r="S62" s="37"/>
-      <c r="T62" s="37"/>
-      <c r="U62" s="37"/>
-      <c r="V62" s="37"/>
-      <c r="W62" s="37"/>
-      <c r="X62" s="37"/>
-      <c r="Y62" s="37"/>
-      <c r="Z62" s="37"/>
-      <c r="AA62" s="37"/>
-      <c r="AB62" s="37"/>
-      <c r="AC62" s="37"/>
-      <c r="AD62" s="37"/>
-      <c r="AE62" s="37"/>
-      <c r="AF62" s="37"/>
-      <c r="AG62" s="37"/>
-      <c r="AH62" s="37"/>
-      <c r="AI62" s="37"/>
-      <c r="AJ62" s="37"/>
-    </row>
-    <row r="64" spans="1:37" ht="14.4" thickBot="1">
-      <c r="B64" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="46"/>
-    </row>
-    <row r="65" spans="2:40" ht="15" customHeight="1">
-      <c r="B65" s="35" t="s">
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="46"/>
+    </row>
+    <row r="66" spans="2:40" ht="15" customHeight="1">
+      <c r="B66" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C65" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA65" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB65" s="65"/>
-      <c r="AC65" s="65"/>
-      <c r="AD65" s="65"/>
-      <c r="AE65" s="65"/>
-      <c r="AF65" s="65"/>
-      <c r="AG65" s="65"/>
-      <c r="AH65" s="65"/>
-      <c r="AI65" s="65"/>
-      <c r="AK65" s="57"/>
-    </row>
-    <row r="66" spans="2:40">
-      <c r="B66" s="35" t="s">
+      <c r="C66" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA66" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB66" s="65"/>
+      <c r="AC66" s="65"/>
+      <c r="AD66" s="65"/>
+      <c r="AE66" s="65"/>
+      <c r="AF66" s="65"/>
+      <c r="AG66" s="65"/>
+      <c r="AH66" s="65"/>
+      <c r="AI66" s="65"/>
+      <c r="AK66" s="57"/>
+    </row>
+    <row r="67" spans="2:40">
+      <c r="B67" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="68"/>
-      <c r="H66" s="68"/>
-      <c r="I66" s="68"/>
-      <c r="J66" s="68"/>
-      <c r="K66" s="68"/>
-      <c r="L66" s="68"/>
-      <c r="M66" s="68"/>
-      <c r="N66" s="68"/>
-      <c r="O66" s="68"/>
-      <c r="P66" s="68"/>
-      <c r="Q66" s="68"/>
-      <c r="R66" s="68"/>
-      <c r="S66" s="68"/>
-      <c r="T66" s="68"/>
-      <c r="U66" s="68"/>
-      <c r="V66" s="68"/>
-      <c r="W66" s="68"/>
-      <c r="X66" s="68"/>
-      <c r="Y66" s="68"/>
-      <c r="Z66" s="68"/>
-      <c r="AA66" s="68"/>
-      <c r="AB66" s="68"/>
-      <c r="AC66" s="68"/>
-      <c r="AD66" s="68"/>
-      <c r="AE66" s="68"/>
-      <c r="AF66" s="68"/>
-      <c r="AG66" s="68"/>
-      <c r="AH66" s="68"/>
-      <c r="AI66" s="68"/>
-      <c r="AJ66" s="68"/>
-      <c r="AK66" s="57"/>
-    </row>
-    <row r="67" spans="2:40">
-      <c r="B67" s="35"/>
-      <c r="C67" s="68"/>
+      <c r="C67" s="68" t="s">
+        <v>62</v>
+      </c>
       <c r="D67" s="68"/>
       <c r="E67" s="68"/>
       <c r="F67" s="68"/>
@@ -4160,82 +4252,81 @@
       <c r="AH67" s="68"/>
       <c r="AI67" s="68"/>
       <c r="AJ67" s="68"/>
-    </row>
-    <row r="68" spans="2:40" ht="15" customHeight="1">
+      <c r="AK67" s="57"/>
+    </row>
+    <row r="68" spans="2:40">
       <c r="B68" s="35"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="48"/>
-      <c r="K68" s="58"/>
-      <c r="L68" s="58"/>
-      <c r="M68" s="58"/>
-      <c r="N68" s="58"/>
-      <c r="O68" s="58"/>
-      <c r="P68" s="58"/>
-      <c r="Q68" s="63"/>
-      <c r="R68" s="63"/>
-      <c r="S68" s="63"/>
-      <c r="T68" s="63"/>
-      <c r="U68" s="63"/>
-      <c r="V68" s="58"/>
-      <c r="W68" s="48"/>
-      <c r="X68" s="48"/>
-      <c r="Y68" s="48"/>
-      <c r="Z68" s="48"/>
-      <c r="AA68" s="48"/>
-      <c r="AB68" s="48"/>
-      <c r="AC68" s="48"/>
-      <c r="AD68" s="48"/>
-      <c r="AE68" s="48"/>
-      <c r="AF68" s="48"/>
-      <c r="AG68" s="48"/>
-      <c r="AH68" s="48"/>
-      <c r="AI68" s="48"/>
-      <c r="AJ68" s="48"/>
-    </row>
-    <row r="69" spans="2:40">
+      <c r="C68" s="68"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="68"/>
+      <c r="F68" s="68"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="68"/>
+      <c r="I68" s="68"/>
+      <c r="J68" s="68"/>
+      <c r="K68" s="68"/>
+      <c r="L68" s="68"/>
+      <c r="M68" s="68"/>
+      <c r="N68" s="68"/>
+      <c r="O68" s="68"/>
+      <c r="P68" s="68"/>
+      <c r="Q68" s="68"/>
+      <c r="R68" s="68"/>
+      <c r="S68" s="68"/>
+      <c r="T68" s="68"/>
+      <c r="U68" s="68"/>
+      <c r="V68" s="68"/>
+      <c r="W68" s="68"/>
+      <c r="X68" s="68"/>
+      <c r="Y68" s="68"/>
+      <c r="Z68" s="68"/>
+      <c r="AA68" s="68"/>
+      <c r="AB68" s="68"/>
+      <c r="AC68" s="68"/>
+      <c r="AD68" s="68"/>
+      <c r="AE68" s="68"/>
+      <c r="AF68" s="68"/>
+      <c r="AG68" s="68"/>
+      <c r="AH68" s="68"/>
+      <c r="AI68" s="68"/>
+      <c r="AJ68" s="68"/>
+    </row>
+    <row r="69" spans="2:40" ht="15" customHeight="1">
       <c r="B69" s="35"/>
-      <c r="C69" s="53"/>
+      <c r="C69" s="48"/>
       <c r="D69" s="49"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="53"/>
-      <c r="K69" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="L69" s="66"/>
-      <c r="M69" s="66"/>
-      <c r="N69" s="66"/>
-      <c r="O69" s="66"/>
-      <c r="P69" s="66"/>
-      <c r="Q69" s="66"/>
-      <c r="R69" s="66"/>
-      <c r="S69" s="66"/>
-      <c r="T69" s="66"/>
-      <c r="U69" s="66"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="58"/>
+      <c r="L69" s="58"/>
+      <c r="M69" s="58"/>
+      <c r="N69" s="58"/>
+      <c r="O69" s="58"/>
+      <c r="P69" s="58"/>
+      <c r="Q69" s="63"/>
+      <c r="R69" s="63"/>
+      <c r="S69" s="63"/>
+      <c r="T69" s="63"/>
+      <c r="U69" s="63"/>
       <c r="V69" s="58"/>
-      <c r="W69" s="53"/>
-      <c r="X69" s="53"/>
-      <c r="Y69" s="53"/>
-      <c r="Z69" s="53"/>
-      <c r="AA69" s="53"/>
-      <c r="AB69" s="53"/>
-      <c r="AC69" s="53"/>
-      <c r="AD69" s="53"/>
-      <c r="AE69" s="53"/>
-      <c r="AF69" s="53"/>
-      <c r="AG69" s="53"/>
-      <c r="AH69" s="53"/>
-      <c r="AI69" s="53"/>
-      <c r="AJ69" s="53"/>
+      <c r="W69" s="48"/>
+      <c r="X69" s="48"/>
+      <c r="Y69" s="48"/>
+      <c r="Z69" s="48"/>
+      <c r="AA69" s="48"/>
+      <c r="AB69" s="48"/>
+      <c r="AC69" s="48"/>
+      <c r="AD69" s="48"/>
+      <c r="AE69" s="48"/>
+      <c r="AF69" s="48"/>
+      <c r="AG69" s="48"/>
+      <c r="AH69" s="48"/>
+      <c r="AI69" s="48"/>
+      <c r="AJ69" s="48"/>
     </row>
     <row r="70" spans="2:40">
       <c r="B70" s="35"/>
@@ -4247,17 +4338,19 @@
       <c r="H70" s="53"/>
       <c r="I70" s="53"/>
       <c r="J70" s="53"/>
-      <c r="K70" s="58"/>
-      <c r="L70" s="58"/>
-      <c r="M70" s="58"/>
-      <c r="N70" s="58"/>
-      <c r="O70" s="58"/>
-      <c r="P70" s="58"/>
-      <c r="Q70" s="63"/>
-      <c r="R70" s="63"/>
-      <c r="S70" s="63"/>
-      <c r="T70" s="63"/>
-      <c r="U70" s="63"/>
+      <c r="K70" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="L70" s="66"/>
+      <c r="M70" s="66"/>
+      <c r="N70" s="66"/>
+      <c r="O70" s="66"/>
+      <c r="P70" s="66"/>
+      <c r="Q70" s="66"/>
+      <c r="R70" s="66"/>
+      <c r="S70" s="66"/>
+      <c r="T70" s="66"/>
+      <c r="U70" s="66"/>
       <c r="V70" s="58"/>
       <c r="W70" s="53"/>
       <c r="X70" s="53"/>
@@ -4321,18 +4414,18 @@
       <c r="H72" s="53"/>
       <c r="I72" s="53"/>
       <c r="J72" s="53"/>
-      <c r="K72" s="53"/>
-      <c r="L72" s="53"/>
-      <c r="M72" s="53"/>
-      <c r="N72" s="53"/>
-      <c r="O72" s="53"/>
-      <c r="P72" s="53"/>
-      <c r="Q72" s="53"/>
-      <c r="R72" s="53"/>
-      <c r="S72" s="53"/>
-      <c r="T72" s="53"/>
-      <c r="U72" s="53"/>
-      <c r="V72" s="53"/>
+      <c r="K72" s="58"/>
+      <c r="L72" s="58"/>
+      <c r="M72" s="58"/>
+      <c r="N72" s="58"/>
+      <c r="O72" s="58"/>
+      <c r="P72" s="58"/>
+      <c r="Q72" s="63"/>
+      <c r="R72" s="63"/>
+      <c r="S72" s="63"/>
+      <c r="T72" s="63"/>
+      <c r="U72" s="63"/>
+      <c r="V72" s="58"/>
       <c r="W72" s="53"/>
       <c r="X72" s="53"/>
       <c r="Y72" s="53"/>
@@ -4387,69 +4480,106 @@
     </row>
     <row r="74" spans="2:40">
       <c r="B74" s="35"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="48"/>
-      <c r="E74" s="48"/>
-      <c r="F74" s="48"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="48"/>
-      <c r="I74" s="48"/>
-      <c r="J74" s="48"/>
-      <c r="K74" s="48"/>
-      <c r="L74" s="48"/>
-      <c r="M74" s="48"/>
-      <c r="N74" s="48"/>
-      <c r="O74" s="48"/>
-      <c r="P74" s="48"/>
-      <c r="Q74" s="48"/>
-      <c r="R74" s="48"/>
-      <c r="S74" s="48"/>
-      <c r="T74" s="48"/>
-      <c r="U74" s="48"/>
-      <c r="V74" s="48"/>
-      <c r="W74" s="48"/>
-      <c r="X74" s="48"/>
-      <c r="Y74" s="48"/>
-      <c r="Z74" s="48"/>
-      <c r="AA74" s="48"/>
-      <c r="AB74" s="48"/>
-      <c r="AC74" s="48"/>
-      <c r="AD74" s="48"/>
-      <c r="AE74" s="48"/>
-      <c r="AF74" s="48"/>
-      <c r="AG74" s="48"/>
-      <c r="AH74" s="48"/>
-      <c r="AI74" s="48"/>
-      <c r="AJ74" s="48"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="53"/>
+      <c r="K74" s="53"/>
+      <c r="L74" s="53"/>
+      <c r="M74" s="53"/>
+      <c r="N74" s="53"/>
+      <c r="O74" s="53"/>
+      <c r="P74" s="53"/>
+      <c r="Q74" s="53"/>
+      <c r="R74" s="53"/>
+      <c r="S74" s="53"/>
+      <c r="T74" s="53"/>
+      <c r="U74" s="53"/>
+      <c r="V74" s="53"/>
+      <c r="W74" s="53"/>
+      <c r="X74" s="53"/>
+      <c r="Y74" s="53"/>
+      <c r="Z74" s="53"/>
+      <c r="AA74" s="53"/>
+      <c r="AB74" s="53"/>
+      <c r="AC74" s="53"/>
+      <c r="AD74" s="53"/>
+      <c r="AE74" s="53"/>
+      <c r="AF74" s="53"/>
+      <c r="AG74" s="53"/>
+      <c r="AH74" s="53"/>
+      <c r="AI74" s="53"/>
+      <c r="AJ74" s="53"/>
     </row>
     <row r="75" spans="2:40">
-      <c r="B75" s="35" t="s">
+      <c r="B75" s="35"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="48"/>
+      <c r="J75" s="48"/>
+      <c r="K75" s="48"/>
+      <c r="L75" s="48"/>
+      <c r="M75" s="48"/>
+      <c r="N75" s="48"/>
+      <c r="O75" s="48"/>
+      <c r="P75" s="48"/>
+      <c r="Q75" s="48"/>
+      <c r="R75" s="48"/>
+      <c r="S75" s="48"/>
+      <c r="T75" s="48"/>
+      <c r="U75" s="48"/>
+      <c r="V75" s="48"/>
+      <c r="W75" s="48"/>
+      <c r="X75" s="48"/>
+      <c r="Y75" s="48"/>
+      <c r="Z75" s="48"/>
+      <c r="AA75" s="48"/>
+      <c r="AB75" s="48"/>
+      <c r="AC75" s="48"/>
+      <c r="AD75" s="48"/>
+      <c r="AE75" s="48"/>
+      <c r="AF75" s="48"/>
+      <c r="AG75" s="48"/>
+      <c r="AH75" s="48"/>
+      <c r="AI75" s="48"/>
+      <c r="AJ75" s="48"/>
+    </row>
+    <row r="76" spans="2:40">
+      <c r="B76" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C75" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF75" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG75" s="65"/>
-      <c r="AH75" s="65"/>
-      <c r="AI75" s="65"/>
-      <c r="AJ75" s="65"/>
-      <c r="AK75" s="64"/>
-      <c r="AL75" s="64"/>
-      <c r="AM75" s="64"/>
-      <c r="AN75" s="64"/>
-    </row>
-    <row r="76" spans="2:40">
-      <c r="B76" s="35"/>
-      <c r="C76" s="47" t="s">
+      <c r="C76" t="s">
         <v>49</v>
       </c>
+      <c r="AF76" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG76" s="65"/>
+      <c r="AH76" s="65"/>
+      <c r="AI76" s="65"/>
+      <c r="AJ76" s="65"/>
+      <c r="AK76" s="64"/>
+      <c r="AL76" s="64"/>
+      <c r="AM76" s="64"/>
+      <c r="AN76" s="64"/>
     </row>
     <row r="77" spans="2:40">
+      <c r="B77" s="35"/>
       <c r="C77" s="47" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="2:40">
+      <c r="C78" s="47" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -4473,20 +4603,20 @@
     <mergeCell ref="W1:AJ1"/>
     <mergeCell ref="W2:AJ2"/>
     <mergeCell ref="A3:D4"/>
-    <mergeCell ref="AA65:AI65"/>
-    <mergeCell ref="K69:U69"/>
-    <mergeCell ref="AF75:AJ75"/>
+    <mergeCell ref="AA66:AI66"/>
+    <mergeCell ref="K70:U70"/>
+    <mergeCell ref="AF76:AJ76"/>
     <mergeCell ref="K19:U19"/>
     <mergeCell ref="K27:U27"/>
     <mergeCell ref="X33:AH33"/>
     <mergeCell ref="X34:AH34"/>
     <mergeCell ref="X35:AH35"/>
-    <mergeCell ref="C66:AJ67"/>
-    <mergeCell ref="B40:AJ41"/>
+    <mergeCell ref="C67:AJ68"/>
+    <mergeCell ref="B41:AJ42"/>
     <mergeCell ref="X36:AH36"/>
     <mergeCell ref="AB38:AH38"/>
-    <mergeCell ref="AC43:AH43"/>
-    <mergeCell ref="AC45:AH45"/>
+    <mergeCell ref="AC44:AH44"/>
+    <mergeCell ref="AC46:AH46"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.31496062992125984" top="0.39370078740157483" bottom="0.31496062992125984" header="0.15748031496062992" footer="0.15748031496062992"/>
   <pageSetup paperSize="8" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
